--- a/Luban/LubanConfig/Datas/#TowerData.xlsx
+++ b/Luban/LubanConfig/Datas/#TowerData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learn\tower-defense-tengine-demo\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56640C8D-551A-40F5-B1AD-AF762B7C2ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFDC9D6-F23C-487D-88E7-7023A16D50D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31740" yWindow="1740" windowWidth="19335" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3315" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,13 @@
   </si>
   <si>
     <t>MissileArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entityid</t>
+  </si>
+  <si>
+    <t>实体编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,11 +273,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,30 +562,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="5.375" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,31 +603,34 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -639,25 +653,28 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -682,20 +699,23 @@
       <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -712,31 +732,34 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>101</v>
       </c>
@@ -749,38 +772,41 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
+        <v>3007</v>
+      </c>
+      <c r="G5">
         <v>3001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1040</v>
       </c>
-      <c r="H5" t="b">
+      <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
         <v>43</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>10101</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>10102</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>10103</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>102</v>
       </c>
@@ -793,38 +819,41 @@
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
+        <v>3008</v>
+      </c>
+      <c r="G6">
         <v>3002</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1041</v>
       </c>
-      <c r="H6" t="b">
+      <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
         <v>43</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10201</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>10202</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>10203</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>103</v>
       </c>
@@ -837,38 +866,41 @@
       <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
+        <v>3009</v>
+      </c>
+      <c r="G7">
         <v>3003</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1042</v>
       </c>
-      <c r="H7" t="b">
+      <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
         <v>43</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>10301</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>10302</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>10303</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>104</v>
       </c>
@@ -881,38 +913,41 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
+        <v>3010</v>
+      </c>
+      <c r="G8">
         <v>3004</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1043</v>
       </c>
-      <c r="H8" t="b">
+      <c r="I8" t="b">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
         <v>43</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>10401</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>10402</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>10403</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>105</v>
       </c>
@@ -925,38 +960,41 @@
       <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
+        <v>3011</v>
+      </c>
+      <c r="G9">
         <v>3005</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1044</v>
       </c>
-      <c r="H9" t="b">
+      <c r="I9" t="b">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
         <v>43</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>10501</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>10502</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>10503</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>106</v>
       </c>
@@ -969,42 +1007,45 @@
       <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
+        <v>3012</v>
+      </c>
+      <c r="G10">
         <v>3006</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1045</v>
       </c>
-      <c r="H10" t="b">
+      <c r="I10" t="b">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
         <v>43</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>10601</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/LubanConfig/Datas/#TowerData.xlsx
+++ b/Luban/LubanConfig/Datas/#TowerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFDC9D6-F23C-487D-88E7-7023A16D50D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6196A24E-72B5-4744-B27E-1B012F0051A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3315" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,10 +277,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +565,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,18 +617,18 @@
       <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="3"/>
       <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -661,18 +661,18 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="3"/>
       <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -702,18 +702,18 @@
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="3"/>
       <c r="M3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -746,18 +746,18 @@
       <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="3"/>
       <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -772,7 +772,7 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>3007</v>
       </c>
       <c r="G5">
@@ -819,7 +819,7 @@
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>3008</v>
       </c>
       <c r="G6">
@@ -866,7 +866,7 @@
       <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>3009</v>
       </c>
       <c r="G7">
@@ -913,14 +913,14 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>3010</v>
       </c>
       <c r="G8">
         <v>3004</v>
       </c>
       <c r="H8">
-        <v>1043</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -960,14 +960,14 @@
       <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>3011</v>
       </c>
       <c r="G9">
         <v>3005</v>
       </c>
       <c r="H9">
-        <v>1044</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1007,14 +1007,14 @@
       <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>3012</v>
       </c>
       <c r="G10">
         <v>3006</v>
       </c>
       <c r="H10">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>

--- a/Luban/LubanConfig/Datas/#TowerData.xlsx
+++ b/Luban/LubanConfig/Datas/#TowerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6196A24E-72B5-4744-B27E-1B012F0051A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41810363-0348-47C0-9C61-15E61E0374E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,38 @@
   </si>
   <si>
     <t>实体编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮弹脚本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityProjectileHitscanLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityProjectileBallisticLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityEnergyPylonLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityEMPGeneratorLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityProjectileWobblingHomingLogic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,16 +609,17 @@
     <col min="6" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" customWidth="1"/>
-    <col min="12" max="12" width="5.375" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.625" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" customWidth="1"/>
+    <col min="13" max="13" width="5.375" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,25 +645,28 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -656,25 +692,28 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -702,20 +741,23 @@
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" t="s">
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -741,25 +783,28 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>101</v>
       </c>
@@ -781,32 +826,35 @@
       <c r="H5">
         <v>1040</v>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>10101</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>10102</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>10103</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>102</v>
       </c>
@@ -828,32 +876,35 @@
       <c r="H6">
         <v>1041</v>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
       </c>
       <c r="L6">
         <v>2</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>43</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>10201</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>10202</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>10203</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>103</v>
       </c>
@@ -875,32 +926,35 @@
       <c r="H7">
         <v>1042</v>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>43</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>10301</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>10302</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>10303</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>104</v>
       </c>
@@ -922,32 +976,35 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
       </c>
       <c r="L8">
         <v>2</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>43</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>10401</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>10402</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>10403</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>105</v>
       </c>
@@ -969,32 +1026,35 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>5</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
         <v>43</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>10501</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>10502</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>10503</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>106</v>
       </c>
@@ -1016,36 +1076,39 @@
       <c r="H10">
         <v>1043</v>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="b">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>43</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>10601</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/LubanConfig/Datas/#TowerData.xlsx
+++ b/Luban/LubanConfig/Datas/#TowerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41810363-0348-47C0-9C61-15E61E0374E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB40315A-B84A-4BD3-93C3-D59C18CA9C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12930" yWindow="2310" windowWidth="18600" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,30 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AssaultCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RocketPlatform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlasmaLance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyPylon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpGenerator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissileArray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Entityid</t>
   </si>
   <si>
@@ -263,6 +239,24 @@
   <si>
     <t>EntityProjectileWobblingHomingLogic</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assault Cannon</t>
+  </si>
+  <si>
+    <t>Rocket Platform</t>
+  </si>
+  <si>
+    <t>Plasma Lance</t>
+  </si>
+  <si>
+    <t>Energy Pylon</t>
+  </si>
+  <si>
+    <t>EMP Generator</t>
+  </si>
+  <si>
+    <t>Missile Array</t>
   </si>
 </sst>
 </file>
@@ -597,7 +591,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>18</v>
@@ -645,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -692,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -774,7 +768,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -783,7 +777,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -812,7 +806,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -827,7 +821,7 @@
         <v>1040</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -862,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -877,7 +871,7 @@
         <v>1041</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -912,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
@@ -927,7 +921,7 @@
         <v>1042</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -962,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -977,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -1012,7 +1006,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -1027,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -1062,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -1077,7 +1071,7 @@
         <v>1043</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
